--- a/woocommerce_agent/retriever/meta_data_phone.xlsx
+++ b/woocommerce_agent/retriever/meta_data_phone.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5948" uniqueCount="1021">
   <si>
     <t>type</t>
   </si>
@@ -3213,12 +3213,531 @@
   <si>
     <t>IPPM413C-2T-Blk</t>
   </si>
+  <si>
+    <t>Macbook</t>
+  </si>
+  <si>
+    <t>AM1-8-256-G</t>
+  </si>
+  <si>
+    <t>Macbook Air M1 13 inch 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 SSD </t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M1 (8 nhân CPU, 7 nhân GPU), khởi đầu cho cuộc cách mạng Apple Silicon. 
+Màn hình: Retina 13.3-inch, độ phân giải 2560x1600, 400 nits. 
+RAM / SSD: 8GB RAM hợp nhất, 256GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4. 
+Tính năng đặc biệt: Thiết kế vỏ sò (wedge shape) kinh điển, Touch ID, bàn phím Magic Keyboard.</t>
+  </si>
+  <si>
+    <t>Chiếc MacBook "quốc dân". Giá trị vượt thời gian, hiệu năng vẫn cực tốt cho các tác vụ văn phòng, học tập và giải trí cơ bản. Lựa chọn số một cho người mới bắt đầu với hệ sinh thái Mac.</t>
+  </si>
+  <si>
+    <t>Xám không gian</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0006177_space-gray_550.webp</t>
+  </si>
+  <si>
+    <t>AM2-8-13-16-256-GR</t>
+  </si>
+  <si>
+    <t>MacBook Air M2 13 inch 2022 8 Core GPU</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M2 (8 nhân CPU, 8 nhân GPU). 
+Màn hình: Liquid Retina 13.6-inch với thiết kế "tai thỏ", độ sáng 500 nits. 
+RAM / SSD: 8GB RAM hợp nhất, 256GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, cổng sạc MagSafe 3. 
+Tính năng đặc biệt: Thiết kế cạnh phẳng hiện đại, webcam 1080p.</t>
+  </si>
+  <si>
+    <t>Phiên bản khởi đầu cho thiết kế mới. Hiệu năng đủ dùng cho mọi tác vụ phổ thông. Lựa chọn tuyệt vời cho sinh viên và nhân viên văn phòng cần một chiếc máy thời trang, di động.</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0008626_macbook-air-136-inch-m2-chip-with-8-core-cpu-and-8-core-gpu-16gb-ram-256gb_550.png</t>
+  </si>
+  <si>
+    <t>AM2-8-13-16-256-S</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0008604_macbook-air-136-inch-m2-chip-with-8-core-cpu-and-8-core-gpu-16gb-ram-256gb_550.png</t>
+  </si>
+  <si>
+    <t>AM2-8-13-16-256-G</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0008615_macbook-air-136-inch-m2-chip-with-8-core-cpu-and-8-core-gpu-16gb-ram-256gb_550.png</t>
+  </si>
+  <si>
+    <t>AM2-8-13-16-256-M</t>
+  </si>
+  <si>
+    <t>Xanh bóng đêm</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0008593_macbook-air-136-inch-m2-chip-with-8-core-cpu-and-8-core-gpu-16gb-ram-256gb_550.png</t>
+  </si>
+  <si>
+    <t>AM2-10-13-16-256-GR</t>
+  </si>
+  <si>
+    <t>MacBook Air M2 13 inch 2022 10 Core GPU</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M2 (8 nhân CPU, 10 nhân GPU) mạnh mẽ hơn về đồ họa. 
+Màn hình: Liquid Retina 13.6-inch.
+RAM / SSD: 8GB RAM hợp nhất, 512GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, MagSafe 3. 
+Tính năng đặc biệt: Giống bản 8-Core GPU nhưng có sức mạnh đồ họa cao hơn.</t>
+  </si>
+  <si>
+    <t>Cung cấp sức mạnh đồ họa tốt hơn, phù hợp cho người dùng có nhu cầu chỉnh sửa ảnh nhẹ nhàng hoặc chơi game. Thường đi kèm SSD lớn hơn ở cấu hình cơ bản.</t>
+  </si>
+  <si>
+    <t>AM2-10-13-16-256-S</t>
+  </si>
+  <si>
+    <t>AM2-10-13-16-256-G</t>
+  </si>
+  <si>
+    <t>AM2-10-13-16-256-M</t>
+  </si>
+  <si>
+    <t>AM2-10-13-16-512-GR</t>
+  </si>
+  <si>
+    <t>AM2-10-13-16-512-S</t>
+  </si>
+  <si>
+    <t>AM2-10-13-16-512-G</t>
+  </si>
+  <si>
+    <t>AM2-10-13-16-512-M</t>
+  </si>
+  <si>
+    <t>AM2-10-15-8-256-GR</t>
+  </si>
+  <si>
+    <t>MacBook Air M2 15 inch 2023 10 Core GPU</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M2 với 8 nhân CPU và 10 nhân GPU, cung cấp hiệu năng mạnh mẽ cho mọi tác vụ hàng ngày và xử lý đồ họa mượt mà. 
+Màn hình: Màn hình Liquid Retina 15.3-inch rộng rãi, độ phân giải 2880x1864, độ sáng 500 nits, hỗ trợ dải màu rộng P3. Thiết kế tai thỏ (Notch) chứa webcam. 
+RAM / SSD: Cấu hình cơ bản 8GB RAM hợp nhất và 256GB SSD tốc độ cao. Có thể tùy chọn nâng cấp lên đến 24GB RAM và 2TB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, 1 jack cắm tai nghe 3.5 mm, và cổng sạc MagSafe 3 tiện lợi. 
+Tính năng đặc biệt: Thiết kế mỏng nhẹ kinh ngạc cho một chiếc máy 15-inch. Hệ thống 6 loa với công nghệ Force-Cancelling Woofers cho âm thanh sống động, hỗ trợ Âm thanh không gian (Spatial Audio). Webcam FaceTime HD 1080p.</t>
+  </si>
+  <si>
+    <t>Sự lựa chọn hoàn hảo cho những ai khao khát một chiếc MacBook màn hình lớn nhưng không cần đến sức mạnh và chi phí của dòng Pro. Cực kỳ mỏng nhẹ, pin trâu, lý tưởng cho công việc đa nhiệm, xem phim và các tác vụ văn phòng đòi hỏi không gian hiển thị rộng rãi.</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0017913_space-gray_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM2-10-15-8-256-S</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0017901_silver_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM2-10-15-8-256-G</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0017925_starlight_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM2-10-15-8-256-M</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0017889_midnight_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM2-10-15-8-512-GR</t>
+  </si>
+  <si>
+    <t>AM2-10-15-8-512-S</t>
+  </si>
+  <si>
+    <t>AM2-10-15-8-512-G</t>
+  </si>
+  <si>
+    <t>AM2-10-15-8-512-M</t>
+  </si>
+  <si>
+    <t>AM3-10-13-8-256-GR</t>
+  </si>
+  <si>
+    <t>MacBook Air M3 13 inch 2024 10 Core GPU</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M3 (8 nhân CPU, 10 nhân GPU) cho hiệu năng đồ họa cao hơn. 
+Màn hình: Liquid Retina 13.6-inch. 
+RAM / SSD: 8GB RAM hợp nhất, 512GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, MagSafe 3. 
+Tính năng đặc biệt: Tương tự bản 8-Core GPU nhưng có sức mạnh đồ họa nhỉnh hơn.</t>
+  </si>
+  <si>
+    <t>Dành cho người dùng có nhu cầu xử lý đồ họa nhẹ như chỉnh sửa ảnh, dựng video ngắn và muốn có thêm không gian lưu trữ ngay từ đầu.</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0024451_space-gray_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM3-10-13-8-256-S</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0024442_silver_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM3-10-13-8-256-G</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0024460_starlight_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM3-10-13-8-256-M</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0024433_midnight_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM3-10-13-8-512-GR</t>
+  </si>
+  <si>
+    <t>AM3-10-13-8-512-S</t>
+  </si>
+  <si>
+    <t>AM3-10-13-8-512-G</t>
+  </si>
+  <si>
+    <t>AM3-10-13-8-512-M</t>
+  </si>
+  <si>
+    <t>AM3-10-13-16-256-GR</t>
+  </si>
+  <si>
+    <t>16 GB</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M3 (8 nhân CPU, 10 nhân GPU). 
+Màn hình: Liquid Retina 13.6-inch.
+RAM / SSD: 16GB RAM hợp nhất, 512GB SSD. Với 16GB RAM, máy xử lý đa nhiệm và các ứng dụng nặng tốt hơn đáng kể. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, MagSafe 3. 
+Tính năng đặc biệt: Hỗ trợ xuất 2 màn hình ngoài (khi gập máy), Wi-Fi 6E.</t>
+  </si>
+  <si>
+    <t>Đây là cấu hình "điểm ngọt" (sweet spot) cho dòng Air. 16GB RAM giúp máy chạy mượt mà hàng chục tab trình duyệt, các ứng dụng văn phòng và đồ họa nhẹ cùng lúc, đồng thời đảm bảo hiệu năng tốt trong nhiều năm tới.</t>
+  </si>
+  <si>
+    <t>AM3-10-13-16-256-S</t>
+  </si>
+  <si>
+    <t>AM3-10-13-16-256-G</t>
+  </si>
+  <si>
+    <t>AM3-10-13-16-256-M</t>
+  </si>
+  <si>
+    <t>AM3-10-13-16-512-GR</t>
+  </si>
+  <si>
+    <t>AM3-10-13-16-512-S</t>
+  </si>
+  <si>
+    <t>AM3-10-13-16-512-G</t>
+  </si>
+  <si>
+    <t>AM3-10-13-16-512-M</t>
+  </si>
+  <si>
+    <t>AM3-10-15-8-256-GR</t>
+  </si>
+  <si>
+    <t>MacBook Air M3 15 inch 2024 10 Core GPU</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M3 (8 nhân CPU, 10 nhân GPU). 
+Màn hình: Liquid Retina 15.3-inch rộng rãi. 
+RAM / SSD: 8GB RAM hợp nhất, 256GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, MagSafe 3. 
+Tính năng đặc biệt: Hỗ trợ xuất 2 màn hình ngoài, Wi-Fi 6E, hệ thống 6 loa ấn tượng.</t>
+  </si>
+  <si>
+    <t>Chiếc laptop màn hình lớn, mỏng nhẹ hoàn hảo. Sức mạnh của M3 kết hợp với không gian hiển thị rộng rãi, lý tưởng cho làm việc đa nhiệm, giải trí và những ai yêu thích màn hình lớn.</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0024522_space-gray_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM3-10-15-8-256-S</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0024513_silver_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM3-10-15-8-256-G</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0024531_starlight_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM3-10-15-8-256-M</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0024504_midnight_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM3-10-15-8-512-GR</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M3 (8 nhân CPU, 10 nhân GPU). 
+Màn hình: Liquid Retina 15.3-inch rộng rãi. 
+RAM / SSD: 8GB RAM hợp nhất, 512GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, MagSafe 3. 
+Tính năng đặc biệt: Hỗ trợ xuất 2 màn hình ngoài, Wi-Fi 6E, hệ thống 6 loa ấn tượng.</t>
+  </si>
+  <si>
+    <t>AM3-10-15-8-512-S</t>
+  </si>
+  <si>
+    <t>AM3-10-15-8-512-G</t>
+  </si>
+  <si>
+    <t>AM3-10-15-8-512-M</t>
+  </si>
+  <si>
+    <t>AM3-10-15-16-256-GR</t>
+  </si>
+  <si>
+    <t>AM3-10-15-16-256-S</t>
+  </si>
+  <si>
+    <t>AM3-10-15-16-256-G</t>
+  </si>
+  <si>
+    <t>AM3-10-15-16-256-M</t>
+  </si>
+  <si>
+    <t>AM3-10-15-16-512-GR</t>
+  </si>
+  <si>
+    <t>AM3-10-15-16-512-S</t>
+  </si>
+  <si>
+    <t>AM3-10-15-16-512-G</t>
+  </si>
+  <si>
+    <t>AM3-10-15-16-512-M</t>
+  </si>
+  <si>
+    <t>AM4-8-13-16-256-B</t>
+  </si>
+  <si>
+    <t>MacBook Air M4 13 inch 2025 8 Core GPU</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M4, xây dựng trên tiến trình 3nm thế hệ thứ hai, với Neural Engine được nâng cấp cực kỳ mạnh mẽ để tập trung vào các tác vụ AI tạo sinh. 
+Màn hình:  Liquid Retina 13.6-inch.
+RAM / SSD: Cấu hình tùy chọn nâng cao với 16GB RAM hợp nhất và 512GB SSD, cung cấp khả năng đa nhiệm vượt trội so với bản 8GB. 
+Cổng kết nối: Dự kiến giữ nguyên 2 cổng Thunderbolt / USB 4 và cổng sạc MagSafe 3. 
+Tính năng đặc biệt: Các tính năng AI được tích hợp sâu vào macOS thế hệ mới, hỗ trợ Wi-Fi 7 cho tốc độ kết nối nhanh hơn.</t>
+  </si>
+  <si>
+    <t>Đây sẽ là cấu hình "điểm ngọt" (sweet spot) cho người dùng chuyên nghiệp hơn như lập trình viên, designer, hay những ai thường xuyên làm việc với nhiều ứng dụng cùng lúc. 16GB RAM sẽ đảm bảo hiệu suất mượt mà trong nhiều năm tới.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xanh da trời </t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0036037_blue_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM4-8-13-16-256-S</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0036026_silver_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM4-8-13-16-256-G</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0036048_starlight_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM4-8-13-16-256-M</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0036015_midnight_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM4-10-13-16-512-B</t>
+  </si>
+  <si>
+    <t>MacBook Air M4 13 inch 2025 10 Core GPU</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M4 với Neural Engine được nâng cấp mạnh mẽ, tập trung vào các tính năng AI. 
+Màn hình: Liquid Retina 13.6-inch.
+RAM / SSD: Cấu hình nâng cao với 16GB RAM hợp nhất và 512GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, MagSafe 3. 
+Tính năng đặc biệt: Các tính năng AI tích hợp sâu vào macOS, hỗ trợ Wi-Fi 7.</t>
+  </si>
+  <si>
+    <t>Đây được xem là "cấu hình vàng", cân bằng hoàn hảo cho người dùng chuyên nghiệp. 16GB RAM xử lý đa nhiệm mượt mà, và 512GB SSD cung cấp không gian lưu trữ thoải mái cho hầu hết các dự án, ứng dụng và tệp media mà không lo hết dung lượng quá nhanh</t>
+  </si>
+  <si>
+    <t>AM4-10-13-16-512-S</t>
+  </si>
+  <si>
+    <t>AM4-10-13-16-512-G</t>
+  </si>
+  <si>
+    <t>AM4-10-13-16-512-M</t>
+  </si>
+  <si>
+    <t>AM4-10-13-24-512-B</t>
+  </si>
+  <si>
+    <t>24 GB</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M4. 
+Màn hình: Liquid Retina 13.6-inch. 
+RAM / SSD: Cấu hình tùy chọn cao nhất với 24GB RAM hợp nhất và 512GB SSD khổng lồ. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, MagSafe 3. 
+Tính năng đặc biệt: Các tính năng AI tích hợp sâu vào macOS, hỗ trợ Wi-Fi 7.</t>
+  </si>
+  <si>
+    <t>Cấu hình tối thượng cho một chiếc MacBook Air. Dành cho những người không chấp nhận sự thỏa hiệp, muốn lưu trữ toàn bộ thư viện video 4K ProRes hoặc các dự án 3D lớn trực tiếp trên máy. Đây là khoản đầu tư cho tương lai, đảm bảo sự yên tâm tuyệt đối.</t>
+  </si>
+  <si>
+    <t>AM4-10-13-24-512-S</t>
+  </si>
+  <si>
+    <t>AM4-10-13-24-512-G</t>
+  </si>
+  <si>
+    <t>AM4-10-13-24-512-M</t>
+  </si>
+  <si>
+    <t>AM4-10-15-16-256-B</t>
+  </si>
+  <si>
+    <t>MacBook Air M4 15 inch 2025 10 Core GPU</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M4 với Neural Engine được tối ưu cho AI. 
+Màn hình: Liquid Retina 13.6-inch. 
+RAM / SSD: Cấu hình tùy chọn tập trung vào bộ nhớ với 16GB RAM hợp nhất và 256GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, MagSafe 3. 
+Tính năng đặc biệt: Các tính năng AI mới, Wi-Fi 7.</t>
+  </si>
+  <si>
+    <t>Không gian rộng, hiệu năng mượt. Cấu hình này tận dụng màn hình lớn cho việc đa nhiệm, cho phép hiển thị nhiều cửa sổ song song mà không bị giật lag nhờ 16GB RAM. Phù hợp cho chuyên viên phân tích dữ liệu, người viết nội dung, hoặc quản lý cần không gian làm việc rộng rãi và không lưu trữ nhiều tệp nặng.</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0036172_macbook-air-15-inch-m4-10-core-gpu-16gb-ram-256gb-ssd_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM4-10-15-16-256-S</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0036161_macbook-air-15-inch-m4-10-core-gpu-16gb-ram-256gb-ssd_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM4-10-15-16-256-G</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0036183_macbook-air-15-inch-m4-10-core-gpu-16gb-ram-256gb-ssd_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM4-10-15-16-256-M</t>
+  </si>
+  <si>
+    <t>https://shopdunk.com/images/thumbs/0036150_macbook-air-15-inch-m4-10-core-gpu-16gb-ram-256gb-ssd_550.jpeg</t>
+  </si>
+  <si>
+    <t>AM4-10-15-16-512-B</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M4. 
+Màn hình: Liquid Retina 13.6-inch. 
+RAM / SSD: Cấu hình cân bằng hoàn hảo với 16GB RAM hợp nhất và 512GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, MagSafe 3. 
+Tính năng đặc biệt: Tương tự các phiên bản khác.</t>
+  </si>
+  <si>
+    <t>Cỗ máy giải trí và làm việc toàn diện. Đây là cấu hình lý tưởng nhất cho phiên bản 15-inch. Màn hình lớn kết hợp với RAM và SSD dồi dào tạo nên một chiếc laptop hoàn hảo cho việc xem phim chất lượng cao, chỉnh sửa ảnh, và làm việc với các dự án đòi hỏi cả hiệu năng lẫn không gian lưu trữ.</t>
+  </si>
+  <si>
+    <t>AM4-10-15-16-512-S</t>
+  </si>
+  <si>
+    <t>AM4-10-15-16-512-G</t>
+  </si>
+  <si>
+    <t>AM4-10-15-16-512-M</t>
+  </si>
+  <si>
+    <t>AM4-10-15-24-512-B</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M4. 
+Màn hình: Liquid Retina 15.3-inch. 
+RAM / SSD: Cấu hình chuyên sâu về bộ nhớ với 24GB RAM hợp nhất và 512GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, MagSafe 3. 
+Tính năng đặc biệt: Tối đa hóa hiệu năng trên màn hình lớn</t>
+  </si>
+  <si>
+    <t>Studio di động mỏng nhẹ. Dành cho các nhà sáng tạo nội dung như podcaster, streamer, hoặc biên tập video muốn tận dụng màn hình 15-inch rộng rãi để quản lý timeline phức tạp. 24GB RAM đảm bảo quá trình render và preview mượt mà, điều mà trước đây chỉ dòng Pro mới làm được.</t>
+  </si>
+  <si>
+    <t>AM4-10-15-24-512-S</t>
+  </si>
+  <si>
+    <t>AM4-10-15-24-512-G</t>
+  </si>
+  <si>
+    <t>AM4-10-15-24-512-M</t>
+  </si>
+  <si>
+    <t>PM4-10-14-16-512-B</t>
+  </si>
+  <si>
+    <t>MacBook Pro M4 14 inch 2025 10 Core GPU</t>
+  </si>
+  <si>
+    <t>Vi xử lý: Chip Apple M4 (bản cơ bản), tập trung vào hiệu năng đơn nhân và sức mạnh AI từ Neural Engine. 
+Màn hình: Liquid Retina XDR 14.2-inch với ProMotion (120Hz). 
+RAM / SSD: 16GB RAM hợp nhất và 512GB SSD. 
+Cổng kết nối: 2 cổng Thunderbolt / USB 4, HDMI, SDXC, MagSafe 3. 
+Tính năng đặc biệt: Thừa hưởng thân máy Pro với màn hình và loa cao cấp, nhưng với chip M4 cơ bản để có mức giá dễ tiếp cận.</t>
+  </si>
+  <si>
+    <t>"Cổng vào thế giới Pro". Dành cho người dùng ưu tiên tuyệt đối chất lượng màn hình ProMotion và hệ thống loa cao cấp, nhưng nhu cầu hiệu năng chỉ ở mức khá, không cần sức mạnh của M4 Pro.</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/44/331564/s16/macbook-pro-14-inch-m4-pro-topzone-den-thumb-650x650.png</t>
+  </si>
+  <si>
+    <t>PM4-10-14-16-512-W</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/44/331564/s16/macbook-pro-14-inch-m4-pro-topzone-bac-thumb-650x650.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3362,6 +3881,18 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <u/>
+      <sz val="13.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -3443,7 +3974,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3613,6 +4144,19 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -21198,6 +21742,9 @@
       <c r="K496" s="55" t="s">
         <v>529</v>
       </c>
+      <c r="M496" s="57" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="497" ht="163.5" customHeight="1">
       <c r="A497" s="50" t="s">
@@ -21652,6 +22199,3647 @@
       </c>
       <c r="K509" s="56" t="s">
         <v>791</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="G510" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="G511" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="G512" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="G513" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="G514" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="G515" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="G516" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="G517" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="G518" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="G519" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="G520" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="G521" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="G522" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="G523" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="G524" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="G525" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="G526" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="G527" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="G528" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="G529" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="G530" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="G531" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="G532" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="G533" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="G534" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="G535" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="G536" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="G537" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="G538" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="G539" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="G540" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="G541" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="G542" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="G543" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="G544" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="G545" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="G546" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="G547" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="G548" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="G549" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="G550" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="G551" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="G552" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="G553" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="G554" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="G555" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="G556" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="G557" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="G558" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="G559" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="G560" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="G561" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="G562" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="G563" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="G564" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="G565" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="G566" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="G567" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="G568" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="G569" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="G570" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="G571" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="G572" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="G573" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="G574" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="G575" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="G576" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="G577" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="G578" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B579" s="58" t="s">
+        <v>869</v>
+      </c>
+      <c r="C579" s="58" t="s">
+        <v>870</v>
+      </c>
+      <c r="D579" s="58" t="s">
+        <v>521</v>
+      </c>
+      <c r="E579" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F579" s="58">
+        <v>1.689E7</v>
+      </c>
+      <c r="G579" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H579" s="58" t="s">
+        <v>872</v>
+      </c>
+      <c r="I579" s="58" t="s">
+        <v>873</v>
+      </c>
+      <c r="J579" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K579" s="59" t="s">
+        <v>875</v>
+      </c>
+      <c r="L579" s="60"/>
+      <c r="M579" s="60"/>
+      <c r="N579" s="60"/>
+      <c r="O579" s="60"/>
+      <c r="P579" s="60"/>
+      <c r="Q579" s="60"/>
+      <c r="R579" s="60"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B580" s="58" t="s">
+        <v>876</v>
+      </c>
+      <c r="C580" s="58" t="s">
+        <v>877</v>
+      </c>
+      <c r="D580" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E580" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F580" s="58">
+        <v>1.979E7</v>
+      </c>
+      <c r="G580" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H580" s="58" t="s">
+        <v>879</v>
+      </c>
+      <c r="I580" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="J580" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K580" s="59" t="s">
+        <v>881</v>
+      </c>
+      <c r="L580" s="60"/>
+      <c r="M580" s="60"/>
+      <c r="N580" s="60"/>
+      <c r="O580" s="60"/>
+      <c r="P580" s="60"/>
+      <c r="Q580" s="60"/>
+      <c r="R580" s="60"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B581" s="58" t="s">
+        <v>882</v>
+      </c>
+      <c r="C581" s="58" t="s">
+        <v>877</v>
+      </c>
+      <c r="D581" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E581" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F581" s="58">
+        <v>1.979E7</v>
+      </c>
+      <c r="G581" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H581" s="58" t="s">
+        <v>879</v>
+      </c>
+      <c r="I581" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="J581" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K581" s="61" t="s">
+        <v>883</v>
+      </c>
+      <c r="L581" s="60"/>
+      <c r="M581" s="60"/>
+      <c r="N581" s="60"/>
+      <c r="O581" s="60"/>
+      <c r="P581" s="60"/>
+      <c r="Q581" s="60"/>
+      <c r="R581" s="60"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B582" s="58" t="s">
+        <v>884</v>
+      </c>
+      <c r="C582" s="58" t="s">
+        <v>877</v>
+      </c>
+      <c r="D582" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E582" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F582" s="58">
+        <v>1.979E7</v>
+      </c>
+      <c r="G582" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H582" s="58" t="s">
+        <v>879</v>
+      </c>
+      <c r="I582" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="J582" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K582" s="61" t="s">
+        <v>885</v>
+      </c>
+      <c r="L582" s="60"/>
+      <c r="M582" s="60"/>
+      <c r="N582" s="60"/>
+      <c r="O582" s="60"/>
+      <c r="P582" s="60"/>
+      <c r="Q582" s="60"/>
+      <c r="R582" s="60"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B583" s="58" t="s">
+        <v>886</v>
+      </c>
+      <c r="C583" s="58" t="s">
+        <v>877</v>
+      </c>
+      <c r="D583" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E583" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F583" s="58">
+        <v>1.979E7</v>
+      </c>
+      <c r="G583" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H583" s="58" t="s">
+        <v>879</v>
+      </c>
+      <c r="I583" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="J583" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K583" s="59" t="s">
+        <v>888</v>
+      </c>
+      <c r="L583" s="60"/>
+      <c r="M583" s="60"/>
+      <c r="N583" s="60"/>
+      <c r="O583" s="60"/>
+      <c r="P583" s="60"/>
+      <c r="Q583" s="60"/>
+      <c r="R583" s="60"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B584" s="58" t="s">
+        <v>889</v>
+      </c>
+      <c r="C584" s="58" t="s">
+        <v>890</v>
+      </c>
+      <c r="D584" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E584" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F584" s="58">
+        <v>2.339E7</v>
+      </c>
+      <c r="G584" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H584" s="58" t="s">
+        <v>891</v>
+      </c>
+      <c r="I584" s="58" t="s">
+        <v>892</v>
+      </c>
+      <c r="J584" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K584" s="59" t="s">
+        <v>881</v>
+      </c>
+      <c r="L584" s="60"/>
+      <c r="M584" s="60"/>
+      <c r="N584" s="60"/>
+      <c r="O584" s="60"/>
+      <c r="P584" s="60"/>
+      <c r="Q584" s="60"/>
+      <c r="R584" s="60"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B585" s="58" t="s">
+        <v>893</v>
+      </c>
+      <c r="C585" s="58" t="s">
+        <v>890</v>
+      </c>
+      <c r="D585" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E585" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F585" s="58">
+        <v>2.339E7</v>
+      </c>
+      <c r="G585" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H585" s="58" t="s">
+        <v>891</v>
+      </c>
+      <c r="I585" s="58" t="s">
+        <v>892</v>
+      </c>
+      <c r="J585" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K585" s="61" t="s">
+        <v>883</v>
+      </c>
+      <c r="L585" s="60"/>
+      <c r="M585" s="60"/>
+      <c r="N585" s="60"/>
+      <c r="O585" s="60"/>
+      <c r="P585" s="60"/>
+      <c r="Q585" s="60"/>
+      <c r="R585" s="60"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B586" s="58" t="s">
+        <v>894</v>
+      </c>
+      <c r="C586" s="58" t="s">
+        <v>890</v>
+      </c>
+      <c r="D586" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E586" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F586" s="58">
+        <v>2.339E7</v>
+      </c>
+      <c r="G586" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H586" s="58" t="s">
+        <v>891</v>
+      </c>
+      <c r="I586" s="58" t="s">
+        <v>892</v>
+      </c>
+      <c r="J586" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K586" s="61" t="s">
+        <v>885</v>
+      </c>
+      <c r="L586" s="60"/>
+      <c r="M586" s="60"/>
+      <c r="N586" s="60"/>
+      <c r="O586" s="60"/>
+      <c r="P586" s="60"/>
+      <c r="Q586" s="60"/>
+      <c r="R586" s="60"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B587" s="58" t="s">
+        <v>895</v>
+      </c>
+      <c r="C587" s="58" t="s">
+        <v>890</v>
+      </c>
+      <c r="D587" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E587" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F587" s="58">
+        <v>2.339E7</v>
+      </c>
+      <c r="G587" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H587" s="58" t="s">
+        <v>891</v>
+      </c>
+      <c r="I587" s="58" t="s">
+        <v>892</v>
+      </c>
+      <c r="J587" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K587" s="59" t="s">
+        <v>888</v>
+      </c>
+      <c r="L587" s="60"/>
+      <c r="M587" s="60"/>
+      <c r="N587" s="60"/>
+      <c r="O587" s="60"/>
+      <c r="P587" s="60"/>
+      <c r="Q587" s="60"/>
+      <c r="R587" s="60"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B588" s="58" t="s">
+        <v>896</v>
+      </c>
+      <c r="C588" s="58" t="s">
+        <v>890</v>
+      </c>
+      <c r="D588" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E588" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F588" s="58">
+        <v>2.639E7</v>
+      </c>
+      <c r="G588" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H588" s="58" t="s">
+        <v>891</v>
+      </c>
+      <c r="I588" s="58" t="s">
+        <v>892</v>
+      </c>
+      <c r="J588" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K588" s="59" t="s">
+        <v>881</v>
+      </c>
+      <c r="L588" s="60"/>
+      <c r="M588" s="60"/>
+      <c r="N588" s="60"/>
+      <c r="O588" s="60"/>
+      <c r="P588" s="60"/>
+      <c r="Q588" s="60"/>
+      <c r="R588" s="60"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B589" s="58" t="s">
+        <v>897</v>
+      </c>
+      <c r="C589" s="58" t="s">
+        <v>890</v>
+      </c>
+      <c r="D589" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E589" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F589" s="58">
+        <v>2.639E7</v>
+      </c>
+      <c r="G589" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H589" s="58" t="s">
+        <v>891</v>
+      </c>
+      <c r="I589" s="58" t="s">
+        <v>892</v>
+      </c>
+      <c r="J589" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K589" s="61" t="s">
+        <v>883</v>
+      </c>
+      <c r="L589" s="60"/>
+      <c r="M589" s="60"/>
+      <c r="N589" s="60"/>
+      <c r="O589" s="60"/>
+      <c r="P589" s="60"/>
+      <c r="Q589" s="60"/>
+      <c r="R589" s="60"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B590" s="58" t="s">
+        <v>898</v>
+      </c>
+      <c r="C590" s="58" t="s">
+        <v>890</v>
+      </c>
+      <c r="D590" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E590" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F590" s="58">
+        <v>2.639E7</v>
+      </c>
+      <c r="G590" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H590" s="58" t="s">
+        <v>891</v>
+      </c>
+      <c r="I590" s="58" t="s">
+        <v>892</v>
+      </c>
+      <c r="J590" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K590" s="61" t="s">
+        <v>885</v>
+      </c>
+      <c r="L590" s="60"/>
+      <c r="M590" s="60"/>
+      <c r="N590" s="60"/>
+      <c r="O590" s="60"/>
+      <c r="P590" s="60"/>
+      <c r="Q590" s="60"/>
+      <c r="R590" s="60"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B591" s="58" t="s">
+        <v>899</v>
+      </c>
+      <c r="C591" s="58" t="s">
+        <v>890</v>
+      </c>
+      <c r="D591" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E591" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F591" s="58">
+        <v>2.639E7</v>
+      </c>
+      <c r="G591" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H591" s="58" t="s">
+        <v>891</v>
+      </c>
+      <c r="I591" s="58" t="s">
+        <v>892</v>
+      </c>
+      <c r="J591" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K591" s="59" t="s">
+        <v>888</v>
+      </c>
+      <c r="L591" s="60"/>
+      <c r="M591" s="60"/>
+      <c r="N591" s="60"/>
+      <c r="O591" s="60"/>
+      <c r="P591" s="60"/>
+      <c r="Q591" s="60"/>
+      <c r="R591" s="60"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B592" s="58" t="s">
+        <v>900</v>
+      </c>
+      <c r="C592" s="58" t="s">
+        <v>901</v>
+      </c>
+      <c r="D592" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E592" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F592" s="58">
+        <v>2.739E7</v>
+      </c>
+      <c r="G592" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H592" s="58" t="s">
+        <v>902</v>
+      </c>
+      <c r="I592" s="58" t="s">
+        <v>903</v>
+      </c>
+      <c r="J592" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K592" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="L592" s="60"/>
+      <c r="M592" s="60"/>
+      <c r="N592" s="60"/>
+      <c r="O592" s="60"/>
+      <c r="P592" s="60"/>
+      <c r="Q592" s="60"/>
+      <c r="R592" s="60"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B593" s="58" t="s">
+        <v>905</v>
+      </c>
+      <c r="C593" s="58" t="s">
+        <v>901</v>
+      </c>
+      <c r="D593" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E593" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F593" s="58">
+        <v>2.739E7</v>
+      </c>
+      <c r="G593" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H593" s="58" t="s">
+        <v>902</v>
+      </c>
+      <c r="I593" s="58" t="s">
+        <v>903</v>
+      </c>
+      <c r="J593" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K593" s="59" t="s">
+        <v>906</v>
+      </c>
+      <c r="L593" s="60"/>
+      <c r="M593" s="60"/>
+      <c r="N593" s="60"/>
+      <c r="O593" s="60"/>
+      <c r="P593" s="60"/>
+      <c r="Q593" s="60"/>
+      <c r="R593" s="60"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B594" s="58" t="s">
+        <v>907</v>
+      </c>
+      <c r="C594" s="58" t="s">
+        <v>901</v>
+      </c>
+      <c r="D594" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E594" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F594" s="58">
+        <v>2.739E7</v>
+      </c>
+      <c r="G594" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H594" s="58" t="s">
+        <v>902</v>
+      </c>
+      <c r="I594" s="58" t="s">
+        <v>903</v>
+      </c>
+      <c r="J594" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K594" s="59" t="s">
+        <v>908</v>
+      </c>
+      <c r="L594" s="60"/>
+      <c r="M594" s="60"/>
+      <c r="N594" s="60"/>
+      <c r="O594" s="60"/>
+      <c r="P594" s="60"/>
+      <c r="Q594" s="60"/>
+      <c r="R594" s="60"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B595" s="58" t="s">
+        <v>909</v>
+      </c>
+      <c r="C595" s="58" t="s">
+        <v>901</v>
+      </c>
+      <c r="D595" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E595" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F595" s="58">
+        <v>2.739E7</v>
+      </c>
+      <c r="G595" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H595" s="58" t="s">
+        <v>902</v>
+      </c>
+      <c r="I595" s="58" t="s">
+        <v>903</v>
+      </c>
+      <c r="J595" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K595" s="59" t="s">
+        <v>910</v>
+      </c>
+      <c r="L595" s="60"/>
+      <c r="M595" s="60"/>
+      <c r="N595" s="60"/>
+      <c r="O595" s="60"/>
+      <c r="P595" s="60"/>
+      <c r="Q595" s="60"/>
+      <c r="R595" s="60"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B596" s="58" t="s">
+        <v>911</v>
+      </c>
+      <c r="C596" s="58" t="s">
+        <v>901</v>
+      </c>
+      <c r="D596" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E596" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F596" s="58">
+        <v>2.989E7</v>
+      </c>
+      <c r="G596" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H596" s="58" t="s">
+        <v>902</v>
+      </c>
+      <c r="I596" s="58" t="s">
+        <v>903</v>
+      </c>
+      <c r="J596" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K596" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="L596" s="60"/>
+      <c r="M596" s="60"/>
+      <c r="N596" s="60"/>
+      <c r="O596" s="60"/>
+      <c r="P596" s="60"/>
+      <c r="Q596" s="60"/>
+      <c r="R596" s="60"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B597" s="58" t="s">
+        <v>912</v>
+      </c>
+      <c r="C597" s="58" t="s">
+        <v>901</v>
+      </c>
+      <c r="D597" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E597" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F597" s="58">
+        <v>2.989E7</v>
+      </c>
+      <c r="G597" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H597" s="58" t="s">
+        <v>902</v>
+      </c>
+      <c r="I597" s="58" t="s">
+        <v>903</v>
+      </c>
+      <c r="J597" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K597" s="59" t="s">
+        <v>906</v>
+      </c>
+      <c r="L597" s="60"/>
+      <c r="M597" s="60"/>
+      <c r="N597" s="60"/>
+      <c r="O597" s="60"/>
+      <c r="P597" s="60"/>
+      <c r="Q597" s="60"/>
+      <c r="R597" s="60"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B598" s="58" t="s">
+        <v>913</v>
+      </c>
+      <c r="C598" s="58" t="s">
+        <v>901</v>
+      </c>
+      <c r="D598" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E598" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F598" s="58">
+        <v>2.989E7</v>
+      </c>
+      <c r="G598" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H598" s="58" t="s">
+        <v>902</v>
+      </c>
+      <c r="I598" s="58" t="s">
+        <v>903</v>
+      </c>
+      <c r="J598" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K598" s="59" t="s">
+        <v>908</v>
+      </c>
+      <c r="L598" s="60"/>
+      <c r="M598" s="60"/>
+      <c r="N598" s="60"/>
+      <c r="O598" s="60"/>
+      <c r="P598" s="60"/>
+      <c r="Q598" s="60"/>
+      <c r="R598" s="60"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B599" s="58" t="s">
+        <v>914</v>
+      </c>
+      <c r="C599" s="58" t="s">
+        <v>901</v>
+      </c>
+      <c r="D599" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E599" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F599" s="58">
+        <v>2.989E7</v>
+      </c>
+      <c r="G599" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H599" s="58" t="s">
+        <v>902</v>
+      </c>
+      <c r="I599" s="58" t="s">
+        <v>903</v>
+      </c>
+      <c r="J599" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K599" s="59" t="s">
+        <v>910</v>
+      </c>
+      <c r="L599" s="60"/>
+      <c r="M599" s="60"/>
+      <c r="N599" s="60"/>
+      <c r="O599" s="60"/>
+      <c r="P599" s="60"/>
+      <c r="Q599" s="60"/>
+      <c r="R599" s="60"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B600" s="58" t="s">
+        <v>915</v>
+      </c>
+      <c r="C600" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D600" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E600" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F600" s="58">
+        <v>2.639E7</v>
+      </c>
+      <c r="G600" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H600" s="58" t="s">
+        <v>917</v>
+      </c>
+      <c r="I600" s="58" t="s">
+        <v>918</v>
+      </c>
+      <c r="J600" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K600" s="59" t="s">
+        <v>919</v>
+      </c>
+      <c r="L600" s="60"/>
+      <c r="M600" s="60"/>
+      <c r="N600" s="60"/>
+      <c r="O600" s="60"/>
+      <c r="P600" s="60"/>
+      <c r="Q600" s="60"/>
+      <c r="R600" s="60"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B601" s="58" t="s">
+        <v>920</v>
+      </c>
+      <c r="C601" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D601" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E601" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F601" s="58">
+        <v>2.639E7</v>
+      </c>
+      <c r="G601" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H601" s="58" t="s">
+        <v>917</v>
+      </c>
+      <c r="I601" s="58" t="s">
+        <v>918</v>
+      </c>
+      <c r="J601" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K601" s="59" t="s">
+        <v>921</v>
+      </c>
+      <c r="L601" s="60"/>
+      <c r="M601" s="60"/>
+      <c r="N601" s="60"/>
+      <c r="O601" s="60"/>
+      <c r="P601" s="60"/>
+      <c r="Q601" s="60"/>
+      <c r="R601" s="60"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B602" s="58" t="s">
+        <v>922</v>
+      </c>
+      <c r="C602" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D602" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E602" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F602" s="58">
+        <v>2.639E7</v>
+      </c>
+      <c r="G602" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H602" s="58" t="s">
+        <v>917</v>
+      </c>
+      <c r="I602" s="58" t="s">
+        <v>918</v>
+      </c>
+      <c r="J602" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K602" s="59" t="s">
+        <v>923</v>
+      </c>
+      <c r="L602" s="60"/>
+      <c r="M602" s="60"/>
+      <c r="N602" s="60"/>
+      <c r="O602" s="60"/>
+      <c r="P602" s="60"/>
+      <c r="Q602" s="60"/>
+      <c r="R602" s="60"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B603" s="58" t="s">
+        <v>924</v>
+      </c>
+      <c r="C603" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D603" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E603" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F603" s="58">
+        <v>2.639E7</v>
+      </c>
+      <c r="G603" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H603" s="58" t="s">
+        <v>917</v>
+      </c>
+      <c r="I603" s="58" t="s">
+        <v>918</v>
+      </c>
+      <c r="J603" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K603" s="59" t="s">
+        <v>925</v>
+      </c>
+      <c r="L603" s="60"/>
+      <c r="M603" s="60"/>
+      <c r="N603" s="60"/>
+      <c r="O603" s="60"/>
+      <c r="P603" s="60"/>
+      <c r="Q603" s="60"/>
+      <c r="R603" s="60"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B604" s="58" t="s">
+        <v>926</v>
+      </c>
+      <c r="C604" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D604" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E604" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F604" s="58">
+        <v>3.139E7</v>
+      </c>
+      <c r="G604" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H604" s="58" t="s">
+        <v>917</v>
+      </c>
+      <c r="I604" s="58" t="s">
+        <v>918</v>
+      </c>
+      <c r="J604" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K604" s="59" t="s">
+        <v>919</v>
+      </c>
+      <c r="L604" s="60"/>
+      <c r="M604" s="60"/>
+      <c r="N604" s="60"/>
+      <c r="O604" s="60"/>
+      <c r="P604" s="60"/>
+      <c r="Q604" s="60"/>
+      <c r="R604" s="60"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B605" s="58" t="s">
+        <v>927</v>
+      </c>
+      <c r="C605" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D605" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E605" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F605" s="58">
+        <v>3.139E7</v>
+      </c>
+      <c r="G605" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H605" s="58" t="s">
+        <v>917</v>
+      </c>
+      <c r="I605" s="58" t="s">
+        <v>918</v>
+      </c>
+      <c r="J605" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K605" s="59" t="s">
+        <v>921</v>
+      </c>
+      <c r="L605" s="60"/>
+      <c r="M605" s="60"/>
+      <c r="N605" s="60"/>
+      <c r="O605" s="60"/>
+      <c r="P605" s="60"/>
+      <c r="Q605" s="60"/>
+      <c r="R605" s="60"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B606" s="58" t="s">
+        <v>928</v>
+      </c>
+      <c r="C606" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D606" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E606" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F606" s="58">
+        <v>3.139E7</v>
+      </c>
+      <c r="G606" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H606" s="58" t="s">
+        <v>917</v>
+      </c>
+      <c r="I606" s="58" t="s">
+        <v>918</v>
+      </c>
+      <c r="J606" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K606" s="59" t="s">
+        <v>923</v>
+      </c>
+      <c r="L606" s="60"/>
+      <c r="M606" s="60"/>
+      <c r="N606" s="60"/>
+      <c r="O606" s="60"/>
+      <c r="P606" s="60"/>
+      <c r="Q606" s="60"/>
+      <c r="R606" s="60"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B607" s="58" t="s">
+        <v>929</v>
+      </c>
+      <c r="C607" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D607" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E607" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F607" s="58">
+        <v>3.139E7</v>
+      </c>
+      <c r="G607" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H607" s="58" t="s">
+        <v>917</v>
+      </c>
+      <c r="I607" s="58" t="s">
+        <v>918</v>
+      </c>
+      <c r="J607" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K607" s="59" t="s">
+        <v>925</v>
+      </c>
+      <c r="L607" s="60"/>
+      <c r="M607" s="60"/>
+      <c r="N607" s="60"/>
+      <c r="O607" s="60"/>
+      <c r="P607" s="60"/>
+      <c r="Q607" s="60"/>
+      <c r="R607" s="60"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B608" s="58" t="s">
+        <v>930</v>
+      </c>
+      <c r="C608" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D608" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E608" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F608" s="58">
+        <v>2.529E7</v>
+      </c>
+      <c r="G608" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H608" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I608" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J608" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K608" s="59" t="s">
+        <v>919</v>
+      </c>
+      <c r="L608" s="60"/>
+      <c r="M608" s="60"/>
+      <c r="N608" s="60"/>
+      <c r="O608" s="60"/>
+      <c r="P608" s="60"/>
+      <c r="Q608" s="60"/>
+      <c r="R608" s="60"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B609" s="58" t="s">
+        <v>934</v>
+      </c>
+      <c r="C609" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D609" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E609" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F609" s="58">
+        <v>2.529E7</v>
+      </c>
+      <c r="G609" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H609" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I609" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J609" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K609" s="59" t="s">
+        <v>921</v>
+      </c>
+      <c r="L609" s="60"/>
+      <c r="M609" s="60"/>
+      <c r="N609" s="60"/>
+      <c r="O609" s="60"/>
+      <c r="P609" s="60"/>
+      <c r="Q609" s="60"/>
+      <c r="R609" s="60"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B610" s="58" t="s">
+        <v>935</v>
+      </c>
+      <c r="C610" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D610" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E610" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F610" s="58">
+        <v>2.529E7</v>
+      </c>
+      <c r="G610" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H610" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I610" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J610" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K610" s="59" t="s">
+        <v>923</v>
+      </c>
+      <c r="L610" s="60"/>
+      <c r="M610" s="60"/>
+      <c r="N610" s="60"/>
+      <c r="O610" s="60"/>
+      <c r="P610" s="60"/>
+      <c r="Q610" s="60"/>
+      <c r="R610" s="60"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B611" s="58" t="s">
+        <v>936</v>
+      </c>
+      <c r="C611" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D611" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E611" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F611" s="58">
+        <v>2.529E7</v>
+      </c>
+      <c r="G611" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H611" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I611" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J611" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K611" s="59" t="s">
+        <v>925</v>
+      </c>
+      <c r="L611" s="60"/>
+      <c r="M611" s="60"/>
+      <c r="N611" s="60"/>
+      <c r="O611" s="60"/>
+      <c r="P611" s="60"/>
+      <c r="Q611" s="60"/>
+      <c r="R611" s="60"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B612" s="58" t="s">
+        <v>937</v>
+      </c>
+      <c r="C612" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D612" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E612" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F612" s="58">
+        <v>2.99E7</v>
+      </c>
+      <c r="G612" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H612" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I612" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J612" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K612" s="59" t="s">
+        <v>919</v>
+      </c>
+      <c r="L612" s="60"/>
+      <c r="M612" s="60"/>
+      <c r="N612" s="60"/>
+      <c r="O612" s="60"/>
+      <c r="P612" s="60"/>
+      <c r="Q612" s="60"/>
+      <c r="R612" s="60"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B613" s="58" t="s">
+        <v>938</v>
+      </c>
+      <c r="C613" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D613" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E613" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F613" s="58">
+        <v>2.99E7</v>
+      </c>
+      <c r="G613" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H613" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I613" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J613" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K613" s="59" t="s">
+        <v>921</v>
+      </c>
+      <c r="L613" s="60"/>
+      <c r="M613" s="60"/>
+      <c r="N613" s="60"/>
+      <c r="O613" s="60"/>
+      <c r="P613" s="60"/>
+      <c r="Q613" s="60"/>
+      <c r="R613" s="60"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B614" s="58" t="s">
+        <v>939</v>
+      </c>
+      <c r="C614" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D614" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E614" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F614" s="58">
+        <v>2.99E7</v>
+      </c>
+      <c r="G614" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H614" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I614" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J614" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K614" s="59" t="s">
+        <v>923</v>
+      </c>
+      <c r="L614" s="60"/>
+      <c r="M614" s="60"/>
+      <c r="N614" s="60"/>
+      <c r="O614" s="60"/>
+      <c r="P614" s="60"/>
+      <c r="Q614" s="60"/>
+      <c r="R614" s="60"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B615" s="58" t="s">
+        <v>940</v>
+      </c>
+      <c r="C615" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D615" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E615" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F615" s="58">
+        <v>2.99E7</v>
+      </c>
+      <c r="G615" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H615" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I615" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J615" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K615" s="59" t="s">
+        <v>925</v>
+      </c>
+      <c r="L615" s="60"/>
+      <c r="M615" s="60"/>
+      <c r="N615" s="60"/>
+      <c r="O615" s="60"/>
+      <c r="P615" s="60"/>
+      <c r="Q615" s="60"/>
+      <c r="R615" s="60"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B616" s="58" t="s">
+        <v>941</v>
+      </c>
+      <c r="C616" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D616" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E616" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F616" s="58">
+        <v>2.799E7</v>
+      </c>
+      <c r="G616" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H616" s="58" t="s">
+        <v>943</v>
+      </c>
+      <c r="I616" s="58" t="s">
+        <v>944</v>
+      </c>
+      <c r="J616" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K616" s="59" t="s">
+        <v>945</v>
+      </c>
+      <c r="L616" s="60"/>
+      <c r="M616" s="60"/>
+      <c r="N616" s="60"/>
+      <c r="O616" s="60"/>
+      <c r="P616" s="60"/>
+      <c r="Q616" s="60"/>
+      <c r="R616" s="60"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B617" s="58" t="s">
+        <v>946</v>
+      </c>
+      <c r="C617" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D617" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E617" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F617" s="58">
+        <v>2.799E7</v>
+      </c>
+      <c r="G617" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H617" s="58" t="s">
+        <v>943</v>
+      </c>
+      <c r="I617" s="58" t="s">
+        <v>944</v>
+      </c>
+      <c r="J617" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K617" s="59" t="s">
+        <v>947</v>
+      </c>
+      <c r="L617" s="60"/>
+      <c r="M617" s="60"/>
+      <c r="N617" s="60"/>
+      <c r="O617" s="60"/>
+      <c r="P617" s="60"/>
+      <c r="Q617" s="60"/>
+      <c r="R617" s="60"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B618" s="58" t="s">
+        <v>948</v>
+      </c>
+      <c r="C618" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D618" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E618" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F618" s="58">
+        <v>2.799E7</v>
+      </c>
+      <c r="G618" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H618" s="58" t="s">
+        <v>943</v>
+      </c>
+      <c r="I618" s="58" t="s">
+        <v>944</v>
+      </c>
+      <c r="J618" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K618" s="59" t="s">
+        <v>949</v>
+      </c>
+      <c r="L618" s="60"/>
+      <c r="M618" s="60"/>
+      <c r="N618" s="60"/>
+      <c r="O618" s="60"/>
+      <c r="P618" s="60"/>
+      <c r="Q618" s="60"/>
+      <c r="R618" s="60"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B619" s="58" t="s">
+        <v>950</v>
+      </c>
+      <c r="C619" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D619" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E619" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F619" s="58">
+        <v>2.799E7</v>
+      </c>
+      <c r="G619" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H619" s="58" t="s">
+        <v>943</v>
+      </c>
+      <c r="I619" s="58" t="s">
+        <v>944</v>
+      </c>
+      <c r="J619" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K619" s="59" t="s">
+        <v>951</v>
+      </c>
+      <c r="L619" s="60"/>
+      <c r="M619" s="60"/>
+      <c r="N619" s="60"/>
+      <c r="O619" s="60"/>
+      <c r="P619" s="60"/>
+      <c r="Q619" s="60"/>
+      <c r="R619" s="60"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B620" s="58" t="s">
+        <v>952</v>
+      </c>
+      <c r="C620" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D620" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E620" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F620" s="58">
+        <v>3.019E7</v>
+      </c>
+      <c r="G620" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H620" s="58" t="s">
+        <v>953</v>
+      </c>
+      <c r="I620" s="58" t="s">
+        <v>944</v>
+      </c>
+      <c r="J620" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K620" s="59" t="s">
+        <v>945</v>
+      </c>
+      <c r="L620" s="60"/>
+      <c r="M620" s="60"/>
+      <c r="N620" s="60"/>
+      <c r="O620" s="60"/>
+      <c r="P620" s="60"/>
+      <c r="Q620" s="60"/>
+      <c r="R620" s="60"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B621" s="58" t="s">
+        <v>954</v>
+      </c>
+      <c r="C621" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D621" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E621" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F621" s="58">
+        <v>3.019E7</v>
+      </c>
+      <c r="G621" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H621" s="58" t="s">
+        <v>953</v>
+      </c>
+      <c r="I621" s="58" t="s">
+        <v>944</v>
+      </c>
+      <c r="J621" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K621" s="59" t="s">
+        <v>947</v>
+      </c>
+      <c r="L621" s="60"/>
+      <c r="M621" s="60"/>
+      <c r="N621" s="60"/>
+      <c r="O621" s="60"/>
+      <c r="P621" s="60"/>
+      <c r="Q621" s="60"/>
+      <c r="R621" s="60"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B622" s="58" t="s">
+        <v>955</v>
+      </c>
+      <c r="C622" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D622" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E622" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F622" s="58">
+        <v>3.019E7</v>
+      </c>
+      <c r="G622" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H622" s="58" t="s">
+        <v>953</v>
+      </c>
+      <c r="I622" s="58" t="s">
+        <v>944</v>
+      </c>
+      <c r="J622" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K622" s="59" t="s">
+        <v>949</v>
+      </c>
+      <c r="L622" s="60"/>
+      <c r="M622" s="60"/>
+      <c r="N622" s="60"/>
+      <c r="O622" s="60"/>
+      <c r="P622" s="60"/>
+      <c r="Q622" s="60"/>
+      <c r="R622" s="60"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B623" s="58" t="s">
+        <v>956</v>
+      </c>
+      <c r="C623" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D623" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E623" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F623" s="58">
+        <v>3.019E7</v>
+      </c>
+      <c r="G623" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H623" s="58" t="s">
+        <v>953</v>
+      </c>
+      <c r="I623" s="58" t="s">
+        <v>944</v>
+      </c>
+      <c r="J623" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K623" s="59" t="s">
+        <v>951</v>
+      </c>
+      <c r="L623" s="60"/>
+      <c r="M623" s="60"/>
+      <c r="N623" s="60"/>
+      <c r="O623" s="60"/>
+      <c r="P623" s="60"/>
+      <c r="Q623" s="60"/>
+      <c r="R623" s="60"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B624" s="58" t="s">
+        <v>957</v>
+      </c>
+      <c r="C624" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D624" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E624" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F624" s="58">
+        <v>3.209E7</v>
+      </c>
+      <c r="G624" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H624" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I624" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J624" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K624" s="59" t="s">
+        <v>945</v>
+      </c>
+      <c r="L624" s="60"/>
+      <c r="M624" s="60"/>
+      <c r="N624" s="60"/>
+      <c r="O624" s="60"/>
+      <c r="P624" s="60"/>
+      <c r="Q624" s="60"/>
+      <c r="R624" s="60"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B625" s="58" t="s">
+        <v>958</v>
+      </c>
+      <c r="C625" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D625" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E625" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F625" s="58">
+        <v>3.209E7</v>
+      </c>
+      <c r="G625" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H625" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I625" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J625" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K625" s="59" t="s">
+        <v>947</v>
+      </c>
+      <c r="L625" s="60"/>
+      <c r="M625" s="60"/>
+      <c r="N625" s="60"/>
+      <c r="O625" s="60"/>
+      <c r="P625" s="60"/>
+      <c r="Q625" s="60"/>
+      <c r="R625" s="60"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B626" s="58" t="s">
+        <v>959</v>
+      </c>
+      <c r="C626" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D626" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E626" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F626" s="58">
+        <v>3.209E7</v>
+      </c>
+      <c r="G626" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H626" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I626" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J626" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K626" s="59" t="s">
+        <v>949</v>
+      </c>
+      <c r="L626" s="60"/>
+      <c r="M626" s="60"/>
+      <c r="N626" s="60"/>
+      <c r="O626" s="60"/>
+      <c r="P626" s="60"/>
+      <c r="Q626" s="60"/>
+      <c r="R626" s="60"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B627" s="58" t="s">
+        <v>960</v>
+      </c>
+      <c r="C627" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D627" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E627" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F627" s="58">
+        <v>3.209E7</v>
+      </c>
+      <c r="G627" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H627" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I627" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J627" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K627" s="59" t="s">
+        <v>951</v>
+      </c>
+      <c r="L627" s="60"/>
+      <c r="M627" s="60"/>
+      <c r="N627" s="60"/>
+      <c r="O627" s="60"/>
+      <c r="P627" s="60"/>
+      <c r="Q627" s="60"/>
+      <c r="R627" s="60"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B628" s="58" t="s">
+        <v>961</v>
+      </c>
+      <c r="C628" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D628" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E628" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F628" s="58">
+        <v>4.219E7</v>
+      </c>
+      <c r="G628" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H628" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I628" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J628" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K628" s="59" t="s">
+        <v>945</v>
+      </c>
+      <c r="L628" s="60"/>
+      <c r="M628" s="60"/>
+      <c r="N628" s="60"/>
+      <c r="O628" s="60"/>
+      <c r="P628" s="60"/>
+      <c r="Q628" s="60"/>
+      <c r="R628" s="60"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B629" s="58" t="s">
+        <v>962</v>
+      </c>
+      <c r="C629" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D629" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E629" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F629" s="58">
+        <v>4.219E7</v>
+      </c>
+      <c r="G629" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H629" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I629" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J629" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K629" s="59" t="s">
+        <v>947</v>
+      </c>
+      <c r="L629" s="60"/>
+      <c r="M629" s="60"/>
+      <c r="N629" s="60"/>
+      <c r="O629" s="60"/>
+      <c r="P629" s="60"/>
+      <c r="Q629" s="60"/>
+      <c r="R629" s="60"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B630" s="58" t="s">
+        <v>963</v>
+      </c>
+      <c r="C630" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D630" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E630" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F630" s="58">
+        <v>4.219E7</v>
+      </c>
+      <c r="G630" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H630" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I630" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J630" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K630" s="59" t="s">
+        <v>949</v>
+      </c>
+      <c r="L630" s="60"/>
+      <c r="M630" s="60"/>
+      <c r="N630" s="60"/>
+      <c r="O630" s="60"/>
+      <c r="P630" s="60"/>
+      <c r="Q630" s="60"/>
+      <c r="R630" s="60"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B631" s="58" t="s">
+        <v>964</v>
+      </c>
+      <c r="C631" s="58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D631" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E631" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F631" s="58">
+        <v>4.219E7</v>
+      </c>
+      <c r="G631" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H631" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="I631" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="J631" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K631" s="59" t="s">
+        <v>951</v>
+      </c>
+      <c r="L631" s="60"/>
+      <c r="M631" s="60"/>
+      <c r="N631" s="60"/>
+      <c r="O631" s="60"/>
+      <c r="P631" s="60"/>
+      <c r="Q631" s="60"/>
+      <c r="R631" s="60"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B632" s="58" t="s">
+        <v>965</v>
+      </c>
+      <c r="C632" s="58" t="s">
+        <v>966</v>
+      </c>
+      <c r="D632" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E632" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F632" s="58">
+        <v>2.569E7</v>
+      </c>
+      <c r="G632" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H632" s="58" t="s">
+        <v>967</v>
+      </c>
+      <c r="I632" s="58" t="s">
+        <v>968</v>
+      </c>
+      <c r="J632" s="58" t="s">
+        <v>969</v>
+      </c>
+      <c r="K632" s="59" t="s">
+        <v>970</v>
+      </c>
+      <c r="L632" s="60"/>
+      <c r="M632" s="60"/>
+      <c r="N632" s="60"/>
+      <c r="O632" s="60"/>
+      <c r="P632" s="60"/>
+      <c r="Q632" s="60"/>
+      <c r="R632" s="60"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B633" s="58" t="s">
+        <v>971</v>
+      </c>
+      <c r="C633" s="58" t="s">
+        <v>966</v>
+      </c>
+      <c r="D633" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E633" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F633" s="58">
+        <v>2.569E7</v>
+      </c>
+      <c r="G633" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H633" s="58" t="s">
+        <v>967</v>
+      </c>
+      <c r="I633" s="58" t="s">
+        <v>968</v>
+      </c>
+      <c r="J633" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K633" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="L633" s="60"/>
+      <c r="M633" s="60"/>
+      <c r="N633" s="60"/>
+      <c r="O633" s="60"/>
+      <c r="P633" s="60"/>
+      <c r="Q633" s="60"/>
+      <c r="R633" s="60"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B634" s="58" t="s">
+        <v>973</v>
+      </c>
+      <c r="C634" s="58" t="s">
+        <v>966</v>
+      </c>
+      <c r="D634" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E634" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F634" s="58">
+        <v>2.569E7</v>
+      </c>
+      <c r="G634" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H634" s="58" t="s">
+        <v>967</v>
+      </c>
+      <c r="I634" s="58" t="s">
+        <v>968</v>
+      </c>
+      <c r="J634" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K634" s="59" t="s">
+        <v>974</v>
+      </c>
+      <c r="L634" s="60"/>
+      <c r="M634" s="60"/>
+      <c r="N634" s="60"/>
+      <c r="O634" s="60"/>
+      <c r="P634" s="60"/>
+      <c r="Q634" s="60"/>
+      <c r="R634" s="60"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B635" s="58" t="s">
+        <v>975</v>
+      </c>
+      <c r="C635" s="58" t="s">
+        <v>966</v>
+      </c>
+      <c r="D635" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E635" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F635" s="58">
+        <v>2.569E7</v>
+      </c>
+      <c r="G635" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H635" s="58" t="s">
+        <v>967</v>
+      </c>
+      <c r="I635" s="58" t="s">
+        <v>968</v>
+      </c>
+      <c r="J635" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K635" s="59" t="s">
+        <v>976</v>
+      </c>
+      <c r="L635" s="60"/>
+      <c r="M635" s="60"/>
+      <c r="N635" s="60"/>
+      <c r="O635" s="60"/>
+      <c r="P635" s="60"/>
+      <c r="Q635" s="60"/>
+      <c r="R635" s="60"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B636" s="58" t="s">
+        <v>977</v>
+      </c>
+      <c r="C636" s="58" t="s">
+        <v>978</v>
+      </c>
+      <c r="D636" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E636" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F636" s="58">
+        <v>3.119E7</v>
+      </c>
+      <c r="G636" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H636" s="58" t="s">
+        <v>979</v>
+      </c>
+      <c r="I636" s="58" t="s">
+        <v>980</v>
+      </c>
+      <c r="J636" s="58" t="s">
+        <v>969</v>
+      </c>
+      <c r="K636" s="59" t="s">
+        <v>970</v>
+      </c>
+      <c r="L636" s="60"/>
+      <c r="M636" s="60"/>
+      <c r="N636" s="60"/>
+      <c r="O636" s="60"/>
+      <c r="P636" s="60"/>
+      <c r="Q636" s="60"/>
+      <c r="R636" s="60"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B637" s="58" t="s">
+        <v>981</v>
+      </c>
+      <c r="C637" s="58" t="s">
+        <v>978</v>
+      </c>
+      <c r="D637" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E637" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F637" s="58">
+        <v>3.119E7</v>
+      </c>
+      <c r="G637" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H637" s="58" t="s">
+        <v>979</v>
+      </c>
+      <c r="I637" s="58" t="s">
+        <v>980</v>
+      </c>
+      <c r="J637" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K637" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="L637" s="60"/>
+      <c r="M637" s="60"/>
+      <c r="N637" s="60"/>
+      <c r="O637" s="60"/>
+      <c r="P637" s="60"/>
+      <c r="Q637" s="60"/>
+      <c r="R637" s="60"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B638" s="58" t="s">
+        <v>982</v>
+      </c>
+      <c r="C638" s="58" t="s">
+        <v>978</v>
+      </c>
+      <c r="D638" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E638" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F638" s="58">
+        <v>3.119E7</v>
+      </c>
+      <c r="G638" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H638" s="58" t="s">
+        <v>979</v>
+      </c>
+      <c r="I638" s="58" t="s">
+        <v>980</v>
+      </c>
+      <c r="J638" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K638" s="59" t="s">
+        <v>974</v>
+      </c>
+      <c r="L638" s="60"/>
+      <c r="M638" s="60"/>
+      <c r="N638" s="60"/>
+      <c r="O638" s="60"/>
+      <c r="P638" s="60"/>
+      <c r="Q638" s="60"/>
+      <c r="R638" s="60"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B639" s="58" t="s">
+        <v>983</v>
+      </c>
+      <c r="C639" s="58" t="s">
+        <v>978</v>
+      </c>
+      <c r="D639" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E639" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F639" s="58">
+        <v>3.119E7</v>
+      </c>
+      <c r="G639" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H639" s="58" t="s">
+        <v>979</v>
+      </c>
+      <c r="I639" s="58" t="s">
+        <v>980</v>
+      </c>
+      <c r="J639" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K639" s="59" t="s">
+        <v>976</v>
+      </c>
+      <c r="L639" s="60"/>
+      <c r="M639" s="60"/>
+      <c r="N639" s="60"/>
+      <c r="O639" s="60"/>
+      <c r="P639" s="60"/>
+      <c r="Q639" s="60"/>
+      <c r="R639" s="60"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B640" s="58" t="s">
+        <v>984</v>
+      </c>
+      <c r="C640" s="58" t="s">
+        <v>978</v>
+      </c>
+      <c r="D640" s="58" t="s">
+        <v>985</v>
+      </c>
+      <c r="E640" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F640" s="58">
+        <v>3.699E7</v>
+      </c>
+      <c r="G640" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H640" s="58" t="s">
+        <v>986</v>
+      </c>
+      <c r="I640" s="58" t="s">
+        <v>987</v>
+      </c>
+      <c r="J640" s="58" t="s">
+        <v>969</v>
+      </c>
+      <c r="K640" s="59" t="s">
+        <v>970</v>
+      </c>
+      <c r="L640" s="60"/>
+      <c r="M640" s="60"/>
+      <c r="N640" s="60"/>
+      <c r="O640" s="60"/>
+      <c r="P640" s="60"/>
+      <c r="Q640" s="60"/>
+      <c r="R640" s="60"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B641" s="58" t="s">
+        <v>988</v>
+      </c>
+      <c r="C641" s="58" t="s">
+        <v>978</v>
+      </c>
+      <c r="D641" s="58" t="s">
+        <v>985</v>
+      </c>
+      <c r="E641" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F641" s="58">
+        <v>3.699E7</v>
+      </c>
+      <c r="G641" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H641" s="58" t="s">
+        <v>986</v>
+      </c>
+      <c r="I641" s="58" t="s">
+        <v>987</v>
+      </c>
+      <c r="J641" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K641" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="L641" s="60"/>
+      <c r="M641" s="60"/>
+      <c r="N641" s="60"/>
+      <c r="O641" s="60"/>
+      <c r="P641" s="60"/>
+      <c r="Q641" s="60"/>
+      <c r="R641" s="60"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B642" s="58" t="s">
+        <v>989</v>
+      </c>
+      <c r="C642" s="58" t="s">
+        <v>978</v>
+      </c>
+      <c r="D642" s="58" t="s">
+        <v>985</v>
+      </c>
+      <c r="E642" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F642" s="58">
+        <v>3.699E7</v>
+      </c>
+      <c r="G642" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H642" s="58" t="s">
+        <v>986</v>
+      </c>
+      <c r="I642" s="58" t="s">
+        <v>987</v>
+      </c>
+      <c r="J642" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K642" s="59" t="s">
+        <v>974</v>
+      </c>
+      <c r="L642" s="60"/>
+      <c r="M642" s="60"/>
+      <c r="N642" s="60"/>
+      <c r="O642" s="60"/>
+      <c r="P642" s="60"/>
+      <c r="Q642" s="60"/>
+      <c r="R642" s="60"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B643" s="58" t="s">
+        <v>990</v>
+      </c>
+      <c r="C643" s="58" t="s">
+        <v>978</v>
+      </c>
+      <c r="D643" s="58" t="s">
+        <v>985</v>
+      </c>
+      <c r="E643" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F643" s="58">
+        <v>3.699E7</v>
+      </c>
+      <c r="G643" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H643" s="58" t="s">
+        <v>986</v>
+      </c>
+      <c r="I643" s="58" t="s">
+        <v>987</v>
+      </c>
+      <c r="J643" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K643" s="59" t="s">
+        <v>976</v>
+      </c>
+      <c r="L643" s="60"/>
+      <c r="M643" s="60"/>
+      <c r="N643" s="60"/>
+      <c r="O643" s="60"/>
+      <c r="P643" s="60"/>
+      <c r="Q643" s="60"/>
+      <c r="R643" s="60"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B644" s="58" t="s">
+        <v>991</v>
+      </c>
+      <c r="C644" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D644" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E644" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F644" s="58">
+        <v>3.099E7</v>
+      </c>
+      <c r="G644" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H644" s="58" t="s">
+        <v>993</v>
+      </c>
+      <c r="I644" s="58" t="s">
+        <v>994</v>
+      </c>
+      <c r="J644" s="58" t="s">
+        <v>969</v>
+      </c>
+      <c r="K644" s="59" t="s">
+        <v>995</v>
+      </c>
+      <c r="L644" s="60"/>
+      <c r="M644" s="60"/>
+      <c r="N644" s="60"/>
+      <c r="O644" s="60"/>
+      <c r="P644" s="60"/>
+      <c r="Q644" s="60"/>
+      <c r="R644" s="60"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B645" s="58" t="s">
+        <v>996</v>
+      </c>
+      <c r="C645" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D645" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E645" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F645" s="58">
+        <v>3.099E7</v>
+      </c>
+      <c r="G645" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H645" s="58" t="s">
+        <v>993</v>
+      </c>
+      <c r="I645" s="58" t="s">
+        <v>994</v>
+      </c>
+      <c r="J645" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K645" s="59" t="s">
+        <v>997</v>
+      </c>
+      <c r="L645" s="60"/>
+      <c r="M645" s="60"/>
+      <c r="N645" s="60"/>
+      <c r="O645" s="60"/>
+      <c r="P645" s="60"/>
+      <c r="Q645" s="60"/>
+      <c r="R645" s="60"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B646" s="58" t="s">
+        <v>998</v>
+      </c>
+      <c r="C646" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D646" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E646" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F646" s="58">
+        <v>3.099E7</v>
+      </c>
+      <c r="G646" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H646" s="58" t="s">
+        <v>993</v>
+      </c>
+      <c r="I646" s="58" t="s">
+        <v>994</v>
+      </c>
+      <c r="J646" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K646" s="59" t="s">
+        <v>999</v>
+      </c>
+      <c r="L646" s="60"/>
+      <c r="M646" s="60"/>
+      <c r="N646" s="60"/>
+      <c r="O646" s="60"/>
+      <c r="P646" s="60"/>
+      <c r="Q646" s="60"/>
+      <c r="R646" s="60"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B647" s="58" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C647" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D647" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E647" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F647" s="58">
+        <v>3.099E7</v>
+      </c>
+      <c r="G647" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H647" s="58" t="s">
+        <v>993</v>
+      </c>
+      <c r="I647" s="58" t="s">
+        <v>994</v>
+      </c>
+      <c r="J647" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K647" s="59" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L647" s="60"/>
+      <c r="M647" s="60"/>
+      <c r="N647" s="60"/>
+      <c r="O647" s="60"/>
+      <c r="P647" s="60"/>
+      <c r="Q647" s="60"/>
+      <c r="R647" s="60"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B648" s="58" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C648" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D648" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E648" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F648" s="58">
+        <v>3.649E7</v>
+      </c>
+      <c r="G648" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H648" s="58" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I648" s="58" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J648" s="58" t="s">
+        <v>969</v>
+      </c>
+      <c r="K648" s="59" t="s">
+        <v>995</v>
+      </c>
+      <c r="L648" s="60"/>
+      <c r="M648" s="60"/>
+      <c r="N648" s="60"/>
+      <c r="O648" s="60"/>
+      <c r="P648" s="60"/>
+      <c r="Q648" s="60"/>
+      <c r="R648" s="60"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B649" s="58" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C649" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D649" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E649" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F649" s="58">
+        <v>3.649E7</v>
+      </c>
+      <c r="G649" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H649" s="58" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I649" s="58" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J649" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K649" s="59" t="s">
+        <v>997</v>
+      </c>
+      <c r="L649" s="60"/>
+      <c r="M649" s="60"/>
+      <c r="N649" s="60"/>
+      <c r="O649" s="60"/>
+      <c r="P649" s="60"/>
+      <c r="Q649" s="60"/>
+      <c r="R649" s="60"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B650" s="58" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C650" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D650" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E650" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F650" s="58">
+        <v>3.649E7</v>
+      </c>
+      <c r="G650" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H650" s="58" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I650" s="58" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J650" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K650" s="59" t="s">
+        <v>999</v>
+      </c>
+      <c r="L650" s="60"/>
+      <c r="M650" s="60"/>
+      <c r="N650" s="60"/>
+      <c r="O650" s="60"/>
+      <c r="P650" s="60"/>
+      <c r="Q650" s="60"/>
+      <c r="R650" s="60"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B651" s="58" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C651" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D651" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="E651" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F651" s="58">
+        <v>3.649E7</v>
+      </c>
+      <c r="G651" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H651" s="58" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I651" s="58" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J651" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K651" s="59" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L651" s="60"/>
+      <c r="M651" s="60"/>
+      <c r="N651" s="60"/>
+      <c r="O651" s="60"/>
+      <c r="P651" s="60"/>
+      <c r="Q651" s="60"/>
+      <c r="R651" s="60"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B652" s="58" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C652" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D652" s="58" t="s">
+        <v>985</v>
+      </c>
+      <c r="E652" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F652" s="58">
+        <v>4.199E7</v>
+      </c>
+      <c r="G652" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H652" s="58" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I652" s="58" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J652" s="58" t="s">
+        <v>969</v>
+      </c>
+      <c r="K652" s="59" t="s">
+        <v>995</v>
+      </c>
+      <c r="L652" s="60"/>
+      <c r="M652" s="60"/>
+      <c r="N652" s="60"/>
+      <c r="O652" s="60"/>
+      <c r="P652" s="60"/>
+      <c r="Q652" s="60"/>
+      <c r="R652" s="60"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B653" s="58" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C653" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D653" s="58" t="s">
+        <v>985</v>
+      </c>
+      <c r="E653" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F653" s="58">
+        <v>4.199E7</v>
+      </c>
+      <c r="G653" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H653" s="58" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I653" s="58" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J653" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K653" s="59" t="s">
+        <v>997</v>
+      </c>
+      <c r="L653" s="60"/>
+      <c r="M653" s="60"/>
+      <c r="N653" s="60"/>
+      <c r="O653" s="60"/>
+      <c r="P653" s="60"/>
+      <c r="Q653" s="60"/>
+      <c r="R653" s="60"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B654" s="58" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C654" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D654" s="58" t="s">
+        <v>985</v>
+      </c>
+      <c r="E654" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F654" s="58">
+        <v>4.199E7</v>
+      </c>
+      <c r="G654" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H654" s="58" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I654" s="58" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J654" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K654" s="59" t="s">
+        <v>999</v>
+      </c>
+      <c r="L654" s="60"/>
+      <c r="M654" s="60"/>
+      <c r="N654" s="60"/>
+      <c r="O654" s="60"/>
+      <c r="P654" s="60"/>
+      <c r="Q654" s="60"/>
+      <c r="R654" s="60"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="58" t="s">
+        <v>868</v>
+      </c>
+      <c r="B655" s="58" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C655" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="D655" s="58" t="s">
+        <v>985</v>
+      </c>
+      <c r="E655" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F655" s="58">
+        <v>4.199E7</v>
+      </c>
+      <c r="G655" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H655" s="58" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I655" s="58" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J655" s="58" t="s">
+        <v>887</v>
+      </c>
+      <c r="K655" s="59" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L655" s="60"/>
+      <c r="M655" s="60"/>
+      <c r="N655" s="60"/>
+      <c r="O655" s="60"/>
+      <c r="P655" s="60"/>
+      <c r="Q655" s="60"/>
+      <c r="R655" s="60"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="58" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C656" s="58" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D656" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E656" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F656" s="58">
+        <v>3.889E7</v>
+      </c>
+      <c r="G656" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H656" s="58" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I656" s="58" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J656" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="K656" s="59" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="B657" s="58" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C657" s="58" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D657" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E657" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F657" s="58">
+        <v>3.889E7</v>
+      </c>
+      <c r="G657" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H657" s="60"/>
+      <c r="I657" s="58" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J657" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K657" s="59" t="s">
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -22164,7 +26352,86 @@
     <hyperlink r:id="rId506" ref="K507"/>
     <hyperlink r:id="rId507" ref="K508"/>
     <hyperlink r:id="rId508" ref="K509"/>
+    <hyperlink r:id="rId509" ref="K579"/>
+    <hyperlink r:id="rId510" ref="K580"/>
+    <hyperlink r:id="rId511" ref="K581"/>
+    <hyperlink r:id="rId512" ref="K582"/>
+    <hyperlink r:id="rId513" ref="K583"/>
+    <hyperlink r:id="rId514" ref="K584"/>
+    <hyperlink r:id="rId515" ref="K585"/>
+    <hyperlink r:id="rId516" ref="K586"/>
+    <hyperlink r:id="rId517" ref="K587"/>
+    <hyperlink r:id="rId518" ref="K588"/>
+    <hyperlink r:id="rId519" ref="K589"/>
+    <hyperlink r:id="rId520" ref="K590"/>
+    <hyperlink r:id="rId521" ref="K591"/>
+    <hyperlink r:id="rId522" ref="K592"/>
+    <hyperlink r:id="rId523" ref="K593"/>
+    <hyperlink r:id="rId524" ref="K594"/>
+    <hyperlink r:id="rId525" ref="K595"/>
+    <hyperlink r:id="rId526" ref="K596"/>
+    <hyperlink r:id="rId527" ref="K597"/>
+    <hyperlink r:id="rId528" ref="K598"/>
+    <hyperlink r:id="rId529" ref="K599"/>
+    <hyperlink r:id="rId530" ref="K600"/>
+    <hyperlink r:id="rId531" ref="K601"/>
+    <hyperlink r:id="rId532" ref="K602"/>
+    <hyperlink r:id="rId533" ref="K603"/>
+    <hyperlink r:id="rId534" ref="K604"/>
+    <hyperlink r:id="rId535" ref="K605"/>
+    <hyperlink r:id="rId536" ref="K606"/>
+    <hyperlink r:id="rId537" ref="K607"/>
+    <hyperlink r:id="rId538" ref="K608"/>
+    <hyperlink r:id="rId539" ref="K609"/>
+    <hyperlink r:id="rId540" ref="K610"/>
+    <hyperlink r:id="rId541" ref="K611"/>
+    <hyperlink r:id="rId542" ref="K612"/>
+    <hyperlink r:id="rId543" ref="K613"/>
+    <hyperlink r:id="rId544" ref="K614"/>
+    <hyperlink r:id="rId545" ref="K615"/>
+    <hyperlink r:id="rId546" ref="K616"/>
+    <hyperlink r:id="rId547" ref="K617"/>
+    <hyperlink r:id="rId548" ref="K618"/>
+    <hyperlink r:id="rId549" ref="K619"/>
+    <hyperlink r:id="rId550" ref="K620"/>
+    <hyperlink r:id="rId551" ref="K621"/>
+    <hyperlink r:id="rId552" ref="K622"/>
+    <hyperlink r:id="rId553" ref="K623"/>
+    <hyperlink r:id="rId554" ref="K624"/>
+    <hyperlink r:id="rId555" ref="K625"/>
+    <hyperlink r:id="rId556" ref="K626"/>
+    <hyperlink r:id="rId557" ref="K627"/>
+    <hyperlink r:id="rId558" ref="K628"/>
+    <hyperlink r:id="rId559" ref="K629"/>
+    <hyperlink r:id="rId560" ref="K630"/>
+    <hyperlink r:id="rId561" ref="K631"/>
+    <hyperlink r:id="rId562" ref="K632"/>
+    <hyperlink r:id="rId563" ref="K633"/>
+    <hyperlink r:id="rId564" ref="K634"/>
+    <hyperlink r:id="rId565" ref="K635"/>
+    <hyperlink r:id="rId566" ref="K636"/>
+    <hyperlink r:id="rId567" ref="K637"/>
+    <hyperlink r:id="rId568" ref="K638"/>
+    <hyperlink r:id="rId569" ref="K639"/>
+    <hyperlink r:id="rId570" ref="K640"/>
+    <hyperlink r:id="rId571" ref="K641"/>
+    <hyperlink r:id="rId572" ref="K642"/>
+    <hyperlink r:id="rId573" ref="K643"/>
+    <hyperlink r:id="rId574" ref="K644"/>
+    <hyperlink r:id="rId575" ref="K645"/>
+    <hyperlink r:id="rId576" ref="K646"/>
+    <hyperlink r:id="rId577" ref="K647"/>
+    <hyperlink r:id="rId578" ref="K648"/>
+    <hyperlink r:id="rId579" ref="K649"/>
+    <hyperlink r:id="rId580" ref="K650"/>
+    <hyperlink r:id="rId581" ref="K651"/>
+    <hyperlink r:id="rId582" ref="K652"/>
+    <hyperlink r:id="rId583" ref="K653"/>
+    <hyperlink r:id="rId584" ref="K654"/>
+    <hyperlink r:id="rId585" ref="K655"/>
+    <hyperlink r:id="rId586" ref="K656"/>
+    <hyperlink r:id="rId587" ref="K657"/>
   </hyperlinks>
-  <drawing r:id="rId509"/>
+  <drawing r:id="rId588"/>
 </worksheet>
 </file>